--- a/data/GreatLink/GreatLink Asia High Dividend Equity.xlsx
+++ b/data/GreatLink/GreatLink Asia High Dividend Equity.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid458352"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid520693"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink Asia High Dividend Equity.xlsx
+++ b/data/GreatLink/GreatLink Asia High Dividend Equity.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid203331"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid355179"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
